--- a/round2/xlsform/liberiaCoverageVillageForm.xlsx
+++ b/round2/xlsform/liberiaCoverageVillageForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/liberiaS3Mforms/round2/xlsform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9481EF-AC30-A74B-83FE-432E9BA60E5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3433629-3990-4845-8D9A-FC546ACCE96E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="177">
   <si>
     <t>type</t>
   </si>
@@ -152,93 +152,19 @@
     <t>liberiaVillageFormRound2</t>
   </si>
   <si>
-    <t>Z1100 Rehab/Borbor Town</t>
-  </si>
-  <si>
-    <t>Z1000 Congo Town Old Rd</t>
-  </si>
-  <si>
-    <t>Z1100 Town Hall</t>
-  </si>
-  <si>
-    <t>Z1100 GSA Road Rockville</t>
-  </si>
-  <si>
-    <t>Z1100 Duport Road South</t>
-  </si>
-  <si>
-    <t>Z900 Key &amp; Death Hole</t>
-  </si>
-  <si>
-    <t>Z800 Wroto Town</t>
-  </si>
-  <si>
-    <t>Z1100 72nd Community</t>
-  </si>
-  <si>
-    <t>Z1100 Police Academy</t>
-  </si>
-  <si>
-    <t>Z1100 Red Light</t>
-  </si>
-  <si>
-    <t>Z1100 Kemah Town/Omega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z600 Bishop Brooks
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z600 Bassa Community
-</t>
-  </si>
-  <si>
-    <t>Z800 New Matadi</t>
-  </si>
-  <si>
-    <t>Z1100 Double Bridge</t>
-  </si>
-  <si>
-    <t>Z1100 Neezoe</t>
-  </si>
-  <si>
-    <t>Z1100 Morris Farm</t>
-  </si>
-  <si>
-    <t>Z300 Struggle Community</t>
-  </si>
-  <si>
     <t>Z1300 Chocolate City_A</t>
   </si>
   <si>
     <t>Z1300 Chocolate City_B</t>
   </si>
   <si>
-    <t>Z1200 Shoe Factory</t>
-  </si>
-  <si>
-    <t>Z1200 Kesselly Booulevard</t>
-  </si>
-  <si>
-    <t>Z1200 MTA</t>
-  </si>
-  <si>
     <t>Z1100 Rock Hill</t>
   </si>
   <si>
-    <t>Z1100 Pipeline B</t>
-  </si>
-  <si>
-    <t>Z1100 Barnard Farm</t>
-  </si>
-  <si>
     <t>Z1300 Old Field Gulf/Sign Boar</t>
   </si>
   <si>
     <t>Z1200 Grass Field</t>
-  </si>
-  <si>
-    <t>Z100 Duala Mombo Town-East</t>
   </si>
   <si>
     <t xml:space="preserve">Z1400 Kaba Town
@@ -465,7 +391,184 @@
     <t>pulldata('sampleList', 'gmap',  'EFEACODE', ${eid}) </t>
   </si>
   <si>
-    <t>Link to map of current enumeration area: [SEE MAP](${map})</t>
+    <t>Z1100 Rehab/Borbor Town - via Robertsfield Highway; near LP gas station and near Ritco; landmark Pepper Fish and Grill</t>
+  </si>
+  <si>
+    <t>Z1100 Rehab/Borbor Town - via Robertsfield Highway; landmark on right border Panama Lodge</t>
+  </si>
+  <si>
+    <t>Z1100 Rehab/Borbor Town - via Robertsfield Highway; landmark on left border is Panama Lodge; landmark on right border Rehab Market and Total gas station; landmark Banana Lodge Bard and Restaurants</t>
+  </si>
+  <si>
+    <t>Z1100 Rehab/Borbor Town - via Robertsfield Highway; south border near Star Building Materials, Union Baptist Church and Banana Lodge</t>
+  </si>
+  <si>
+    <t>Z1100 Rehab/Borbor Town - via Robertsfield Highway; south border near Liberian Eco Beach Junction; landmark Jandy's Little Paradise Lodge/Hotel and Focus Entertainment Bar</t>
+  </si>
+  <si>
+    <t>Z1100 Rehab/Borbor Town - via Robertsfield Highway; south border near Executive Inn; right border near KKITCO ENT - Gbengbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1000 Congo Town Old Rd - via Oldest Congo Town Road on its norht border past ELWA Junction, Paynesville and Lotus Restaurant and La Laguna Restaurant; south border is beach front; </t>
+  </si>
+  <si>
+    <t>Z1000 Congo Town Old Rd - via Tubman Boulevard on its north border; south border is Oldest Congo Town Road; near Monoprix shop and Blue House Restaurant on its upper right corner and Rookie Liberia Inc. on its upper left corner</t>
+  </si>
+  <si>
+    <t>Z1000 Congo Town Old Rd - via Tubman Boulevard on its north border; south border is Oldest Congo Town Road; landmarks are Palm Spring Resort, Red Pepper Restaurant, EcoBank PSR, Gusto Coffee Shop</t>
+  </si>
+  <si>
+    <t>Z1100 Town Hall - via Tubman Boulevard on its south border; right bottom corner near GT Bank; right border near Paynesville City General Market; left border near Exclusive Supermarket</t>
+  </si>
+  <si>
+    <t>Z1100 GSA Road Rockville - via Tubman Boulevard on its north border; landmarks are Liberia Broadcasting System and Harvest Bible Chapel</t>
+  </si>
+  <si>
+    <t>Z1100 GSA Road Rockville - via Tubman Boulevard on its north border; landmarks are PA Rib House Paynesville and Monrovia Christian Church</t>
+  </si>
+  <si>
+    <t>Z1100 Duport Road South - via Dillon Avenue on its southwest border; landmarks are Dale G. Gbotoe Residence on its southwest border and Stop and Wash Inc on its southeast border</t>
+  </si>
+  <si>
+    <t>Z1100 Duport Road South - via Dillon Aveue on its south and west border; landmarks are Stop and Wash Inc on its west border and Zabah Apartment and Transit Bar near its right bottom corner</t>
+  </si>
+  <si>
+    <t>Z1100 Duport Road South - via Duport Road on its north border; area is cut by Mesurado River</t>
+  </si>
+  <si>
+    <t>Z900 Key &amp; Death Hole - near Raymon Field Airfield; majority of area is on airfield; houses and residents eastern border; long strip of houses on the edge of airfield</t>
+  </si>
+  <si>
+    <t>Z900 Key &amp; Death Hole - near Raymon Field Airfield; western border near the edge of the airfield; landmarks are Kailondo Lodge/hotel on south eastern corner and kukkaju multiple business centre on the eastern border</t>
+  </si>
+  <si>
+    <t>Z800 Wroto Town - near Raymon Field Airfield on its eastern border; accessed via Airfield shortcut via Tubman Boulevard</t>
+  </si>
+  <si>
+    <t>Z1100 72nd Community - via SKD Boulevard near its northern border; north border near Wright's Choice Bar and Bethel Faith Centre</t>
+  </si>
+  <si>
+    <t>Z1100 72nd Community - via SKD Boulevard near its northern border and on its western border; near ZEO lodge/hotel on its western border</t>
+  </si>
+  <si>
+    <t>Z1100 Police Academy - via SKD Boulevard on its western border; western border near Mesurado River; landmark is Second Repentance Baptist Church</t>
+  </si>
+  <si>
+    <t>Z1100 Red Light - via Tubman Boulevard towards Somalia Drive near its western border; near Lib No 1 Business Centre on its western border; near St. Kizito Catholic Church Compound on its western border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1100 Red Light - via Tubman Boulevard towards Somalia Drive near its western border </t>
+  </si>
+  <si>
+    <t>Z1100 Red Light - via Tubman Boulevard towards Somalia Drive near its western border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1100 Kemah Town/Omega - via Olympic Village Road on its south and eastern border; </t>
+  </si>
+  <si>
+    <t>Z1100 Kemah Town/Omega - via Olympic Village Road on its north border</t>
+  </si>
+  <si>
+    <t>Z1100 Kemah Town/Omega - via Olympic Village Road near its north border</t>
+  </si>
+  <si>
+    <t>Z600 Bishop Brooks - via Haile Selassie Avenue on its eastern border and Perry street on its eastern border; landmarks are Plugz Music and God's Glory Free Pentecostal Church</t>
+  </si>
+  <si>
+    <t>Z600 Bishop Brooks - via Haile Selassie Avenue on its eastern border and Horton Drive on its southern border; landmark is Zenith Multipurpose Store and Camp Johnson Road on its western border</t>
+  </si>
+  <si>
+    <t>Z600 Bassa Community - via Haile Selassie Avenue on its eastern border and Camp Johonson Road on its western border and Horton Drive on its northern border; landmarks are Monrovia Central Seventh Day Adventist near its western border, St. Simon Baptist church on its northern border, Homeline inc. on its eastern border, Elias Antoune Motors  Capitol Hill on its southernmost corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z800 New Matadi - Area with its northern border right on Mesurado River; southern road border near Obas Store; </t>
+  </si>
+  <si>
+    <t>Z800 New Matadi - Area with its northern border right on Mesurado River; southern road border near Holy Innocent Parish</t>
+  </si>
+  <si>
+    <t>Z800 New Matadi - Area with its northern border and wester border right on Mesurado River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1100 Double Bridge - via Somalia Drive on its northern border; </t>
+  </si>
+  <si>
+    <t>Z1100 Double Bridge - via Somalia Drive on its northern border; near God's Royal Assembly Liberia Missions</t>
+  </si>
+  <si>
+    <t>Z1100 Double Bridge - via Somalia Driver near its northern border</t>
+  </si>
+  <si>
+    <t>Z1100 Neezoe - northern border is near New Life Baptist Church</t>
+  </si>
+  <si>
+    <t>Z1100 Neezoe - northern border is near New Life Baptist Church; landmark Shepherd's Heart Evangelist Ministries</t>
+  </si>
+  <si>
+    <t>Z1100 Morris Farm - via Monrovia-Kakata Highway on its southern border; landmark is Sacred Revival Chapel on its eastern border</t>
+  </si>
+  <si>
+    <t>Z1100 Morris Farm - via Monrovia-Kakata Highway on its southern border; landmark is Grab and Go Business Centre Omega Junction</t>
+  </si>
+  <si>
+    <t>Z1100 Morris Farm - via Monrovia-Kakata Highway</t>
+  </si>
+  <si>
+    <t>Z1100 Kemah Town/Omega - near Monrovia-Kakata Highway and Liberia Coca-cola bottling company near its western border; landmark is James Milner Shop; found on circular road</t>
+  </si>
+  <si>
+    <t>Z1100 Kemah Town/Omega - on circular road</t>
+  </si>
+  <si>
+    <t>Z300 Struggle Community - via Somalia Drive towards port; southern border on Mesurado River</t>
+  </si>
+  <si>
+    <t>Z1200 Shoe Factory - via Somalia Drive on its south border and LPRC road on its eastern border</t>
+  </si>
+  <si>
+    <t>Z1200 MTA - via Somalia Drive on its northern border; landmarks are Liberty Christian Centre and Gloryhouse Workshop Centre and LPRC Gardnersville Bus Stop</t>
+  </si>
+  <si>
+    <t>Z1200 Kesselly Booulevard - via Somalia Drive on its northern border; landmarks are Shoe Factor Bus stop on its north border and Superstar Lodge on its north border</t>
+  </si>
+  <si>
+    <t>Z1100 Pipeline B - Pipeline Road on its eastern border; landmark is Prestontina's Expressway cafe</t>
+  </si>
+  <si>
+    <t>Z1100 Pipeline B - Pipeline Road near its eastern border; landmark is The Kar's Shop</t>
+  </si>
+  <si>
+    <t>Z1100 Barnard Farm - Pipeline Road on its western border</t>
+  </si>
+  <si>
+    <t>Z1100 Kemah Town/Omega - via Monrovia-Kakata Highway on its western border</t>
+  </si>
+  <si>
+    <t>Z1100 Barnard Farm - via Monrovia-Kakata Highway on its eastern border; near Protestant Baptist Church of Works and Mission International</t>
+  </si>
+  <si>
+    <t>Z1100 Barnard Farm - western border on pipeline road; eastern border near Monrovia-Kakata highway; landmark Habitation of Faith OFWB Church</t>
+  </si>
+  <si>
+    <t>Z100 Duala Mombo Town-East - via United Nations Drive near its western border</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>pulldata('sampleList', 'lat',  'EFEACODE', ${eid}) </t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>pulldata('sampleList', 'lon',  'EFEACODE', ${eid}) </t>
+  </si>
+  <si>
+    <t>Link to map of current enumeration area: 
+[SEE BORDER MAP OF ENUMERATION AREA](${map})
+COORDINATES OF CENTER OF ENUMERATION AREA (for use with navigation app): 
+${lat},${lon}</t>
   </si>
 </sst>
 </file>
@@ -534,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -560,6 +663,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -944,13 +1050,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ9"/>
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -975,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -1033,13 +1139,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -1054,80 +1160,108 @@
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="102">
+    <row r="6" spans="1:12" ht="34">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>131</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="J6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="34">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="J7" s="12" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="34">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>142</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="51">
+    <row r="9" spans="1:12" ht="136">
       <c r="A9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="102">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="51">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1145,14 +1279,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -1168,16 +1302,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1204,13 +1338,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1218,13 +1352,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1232,13 +1366,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1246,13 +1380,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -1260,13 +1394,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -1274,13 +1408,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1288,13 +1422,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1302,13 +1436,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1322,7 +1456,7 @@
         <v>3004557141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1339,7 +1473,7 @@
         <v>3004557151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1356,7 +1490,7 @@
         <v>3004557171</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1373,7 +1507,7 @@
         <v>3004557261</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1390,7 +1524,7 @@
         <v>3004557271</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1407,7 +1541,7 @@
         <v>3004557301</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1424,7 +1558,7 @@
         <v>3004457021</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1441,7 +1575,7 @@
         <v>3004457041</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1458,7 +1592,7 @@
         <v>3004457141</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1475,7 +1609,7 @@
         <v>3004554071</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1492,7 +1626,7 @@
         <v>3004561051</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1509,7 +1643,7 @@
         <v>3004561041</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1526,7 +1660,7 @@
         <v>3004565191</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1543,7 +1677,7 @@
         <v>3004565231</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1560,7 +1694,7 @@
         <v>3004565251</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1577,7 +1711,7 @@
         <v>3004901051</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1594,7 +1728,7 @@
         <v>3004901061</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1611,7 +1745,7 @@
         <v>3004807091</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1628,7 +1762,7 @@
         <v>3004568171</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1645,7 +1779,7 @@
         <v>3004568161</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1662,7 +1796,7 @@
         <v>3004556151</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1679,7 +1813,7 @@
         <v>3004571191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1696,7 +1830,7 @@
         <v>3004571171</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1713,7 +1847,7 @@
         <v>3004571251</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1730,7 +1864,7 @@
         <v>3004575141</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1747,7 +1881,7 @@
         <v>3004575171</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1764,7 +1898,7 @@
         <v>3004575161</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1773,15 +1907,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="17">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="1">
         <v>3004607041</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>50</v>
+      <c r="C40" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1790,15 +1924,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="17">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="1">
         <v>3004607051</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>50</v>
+      <c r="C41" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1807,15 +1941,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="34">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="1">
         <v>3004609011</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>51</v>
+      <c r="C42" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1832,7 +1966,7 @@
         <v>3004802121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1849,7 +1983,7 @@
         <v>3004802111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1866,7 +2000,7 @@
         <v>3004802091</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1883,7 +2017,7 @@
         <v>3004574041</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1900,7 +2034,7 @@
         <v>3004574051</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1917,7 +2051,7 @@
         <v>3004574071</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1934,7 +2068,7 @@
         <v>3004566171</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1951,7 +2085,7 @@
         <v>3004566141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1968,7 +2102,7 @@
         <v>3004566131</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -1985,7 +2119,7 @@
         <v>3004562071</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -2002,7 +2136,7 @@
         <v>3004562081</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -2019,7 +2153,7 @@
         <v>3004562061</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -2036,7 +2170,7 @@
         <v>3004575051</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -2053,7 +2187,7 @@
         <v>3004575061</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -2070,7 +2204,7 @@
         <v>3004575071</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -2087,7 +2221,7 @@
         <v>3004311181</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -2104,7 +2238,7 @@
         <v>3004311131</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -2121,7 +2255,7 @@
         <v>3004311121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -2138,7 +2272,7 @@
         <v>3004755111</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -2155,7 +2289,7 @@
         <v>3004757011</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -2172,7 +2306,7 @@
         <v>3004755101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2189,7 +2323,7 @@
         <v>3004660091</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -2206,7 +2340,7 @@
         <v>3004653011</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -2223,7 +2357,7 @@
         <v>3004657051</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -2240,7 +2374,7 @@
         <v>3004576181</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -2257,7 +2391,7 @@
         <v>3004576161</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -2274,7 +2408,7 @@
         <v>3004576171</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -2291,7 +2425,7 @@
         <v>3004580171</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -2308,7 +2442,7 @@
         <v>3004580181</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -2325,7 +2459,7 @@
         <v>3004582111</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -2342,7 +2476,7 @@
         <v>3004575011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -2359,7 +2493,7 @@
         <v>3004582011</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2376,7 +2510,7 @@
         <v>3004582031</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -2393,7 +2527,7 @@
         <v>3004760141</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -2410,7 +2544,7 @@
         <v>3004654101</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2427,7 +2561,7 @@
         <v>3004654091</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -2444,7 +2578,7 @@
         <v>3004102111</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -2461,7 +2595,7 @@
         <v>3004102101</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -2478,7 +2612,7 @@
         <v>3004102141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -2495,7 +2629,7 @@
         <v>3004858051</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2512,7 +2646,7 @@
         <v>3004858041</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -2529,7 +2663,7 @@
         <v>3004857041</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -2546,7 +2680,7 @@
         <v>3004858081</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -2563,7 +2697,7 @@
         <v>3004858091</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -2580,7 +2714,7 @@
         <v>3004858101</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2597,7 +2731,7 @@
         <v>3004103061</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -2614,7 +2748,7 @@
         <v>3004103071</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -2631,7 +2765,7 @@
         <v>3004103081</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -2648,7 +2782,7 @@
         <v>3004956051</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -2665,7 +2799,7 @@
         <v>3004959011</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -2682,7 +2816,7 @@
         <v>3004955061</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -2699,7 +2833,7 @@
         <v>3004960061</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -2716,7 +2850,7 @@
         <v>3004960041</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -2733,7 +2867,7 @@
         <v>3004960051</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -2750,7 +2884,7 @@
         <v>3004961011</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -2767,7 +2901,7 @@
         <v>3004958011</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -2784,7 +2918,7 @@
         <v>3004960021</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
@@ -2801,7 +2935,7 @@
         <v>3004960011</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
@@ -2818,7 +2952,7 @@
         <v>910001072</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D101" s="1">
         <v>2</v>
@@ -2835,7 +2969,7 @@
         <v>916001092</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -2852,7 +2986,7 @@
         <v>916001062</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
@@ -2869,7 +3003,7 @@
         <v>916009112</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -2886,7 +3020,7 @@
         <v>916006052</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -2903,7 +3037,7 @@
         <v>916009122</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
@@ -2920,7 +3054,7 @@
         <v>910007251</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D107" s="1">
         <v>2</v>
@@ -2937,7 +3071,7 @@
         <v>910007261</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D108" s="1">
         <v>2</v>
@@ -2954,7 +3088,7 @@
         <v>910007281</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D109" s="1">
         <v>2</v>
@@ -2971,7 +3105,7 @@
         <v>910005012</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D110" s="1">
         <v>2</v>
@@ -2988,7 +3122,7 @@
         <v>910001012</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D111" s="1">
         <v>2</v>
@@ -3005,7 +3139,7 @@
         <v>910005032</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D112" s="1">
         <v>2</v>
@@ -3022,7 +3156,7 @@
         <v>916009032</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -3039,7 +3173,7 @@
         <v>916009052</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D114" s="1">
         <v>2</v>
@@ -3056,7 +3190,7 @@
         <v>916009042</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D115" s="1">
         <v>2</v>
@@ -3073,7 +3207,7 @@
         <v>908009012</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D116" s="1">
         <v>2</v>
@@ -3090,7 +3224,7 @@
         <v>908009022</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -3107,7 +3241,7 @@
         <v>908009032</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -3124,7 +3258,7 @@
         <v>908003022</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D119" s="1">
         <v>2</v>
@@ -3141,7 +3275,7 @@
         <v>908003012</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -3158,7 +3292,7 @@
         <v>910004122</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D121" s="1">
         <v>2</v>
@@ -3175,7 +3309,7 @@
         <v>914001202</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -3192,7 +3326,7 @@
         <v>914001192</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -3209,7 +3343,7 @@
         <v>916011042</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D124" s="1">
         <v>2</v>
@@ -3226,7 +3360,7 @@
         <v>902002072</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D125" s="1">
         <v>2</v>
@@ -3243,7 +3377,7 @@
         <v>902003142</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D126" s="1">
         <v>2</v>
@@ -3260,7 +3394,7 @@
         <v>902003132</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D127" s="1">
         <v>2</v>
@@ -3277,7 +3411,7 @@
         <v>904005062</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -3294,7 +3428,7 @@
         <v>902003062</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -3311,7 +3445,7 @@
         <v>904005072</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D130" s="1">
         <v>2</v>
@@ -3328,7 +3462,7 @@
         <v>906005022</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D131" s="1">
         <v>2</v>
@@ -3345,7 +3479,7 @@
         <v>908001012</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -3362,7 +3496,7 @@
         <v>908001022</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -3379,7 +3513,7 @@
         <v>906002022</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -3396,7 +3530,7 @@
         <v>914003162</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -3413,7 +3547,7 @@
         <v>914002012</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D136" s="1">
         <v>2</v>
@@ -3430,7 +3564,7 @@
         <v>914014012</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -3447,7 +3581,7 @@
         <v>914001042</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3464,7 +3598,7 @@
         <v>914001032</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -3481,7 +3615,7 @@
         <v>916005012</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
@@ -3498,7 +3632,7 @@
         <v>916005022</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -3515,7 +3649,7 @@
         <v>916005032</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D142" s="1">
         <v>2</v>
@@ -3532,7 +3666,7 @@
         <v>902001022</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -3549,7 +3683,7 @@
         <v>902001032</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D144" s="1">
         <v>2</v>
@@ -3566,7 +3700,7 @@
         <v>904010012</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D145" s="1">
         <v>2</v>
@@ -3583,7 +3717,7 @@
         <v>904005032</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D146" s="1">
         <v>2</v>
@@ -3600,7 +3734,7 @@
         <v>904005022</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D147" s="1">
         <v>2</v>
@@ -3617,7 +3751,7 @@
         <v>904006042</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3634,7 +3768,7 @@
         <v>906001092</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D149" s="1">
         <v>2</v>
@@ -3651,7 +3785,7 @@
         <v>906001012</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D150" s="1">
         <v>2</v>
@@ -3668,7 +3802,7 @@
         <v>906001102</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D151" s="1">
         <v>2</v>
@@ -3685,7 +3819,7 @@
         <v>906001052</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D152" s="1">
         <v>2</v>
@@ -3702,7 +3836,7 @@
         <v>906006062</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3719,7 +3853,7 @@
         <v>914006032</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D154" s="1">
         <v>2</v>
@@ -3736,7 +3870,7 @@
         <v>914005012</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D155" s="1">
         <v>2</v>
@@ -3753,7 +3887,7 @@
         <v>914005022</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D156" s="1">
         <v>2</v>
@@ -3770,7 +3904,7 @@
         <v>914007052</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D157" s="1">
         <v>2</v>
@@ -3787,7 +3921,7 @@
         <v>914008012</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -3804,7 +3938,7 @@
         <v>914009022</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -3821,7 +3955,7 @@
         <v>914009032</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D160" s="1">
         <v>2</v>
@@ -3838,7 +3972,7 @@
         <v>904009012</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D161" s="1">
         <v>2</v>
@@ -3855,7 +3989,7 @@
         <v>904009022</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D162" s="1">
         <v>2</v>
@@ -3872,7 +4006,7 @@
         <v>904006012</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -3889,7 +4023,7 @@
         <v>906011022</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D164" s="1">
         <v>2</v>
@@ -3906,7 +4040,7 @@
         <v>906011032</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D165" s="1">
         <v>2</v>
@@ -3923,7 +4057,7 @@
         <v>906011012</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D166" s="1">
         <v>2</v>
@@ -3940,7 +4074,7 @@
         <v>906006012</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D167" s="1">
         <v>2</v>
@@ -3957,7 +4091,7 @@
         <v>906006022</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D168" s="1">
         <v>2</v>
@@ -3974,7 +4108,7 @@
         <v>906006032</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D169" s="1">
         <v>2</v>
@@ -3991,7 +4125,7 @@
         <v>906007042</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D170" s="1">
         <v>2</v>
@@ -4008,7 +4142,7 @@
         <v>906007052</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D171" s="1">
         <v>2</v>
@@ -4025,7 +4159,7 @@
         <v>914006012</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D172" s="1">
         <v>2</v>
@@ -4042,7 +4176,7 @@
         <v>914007012</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -4059,7 +4193,7 @@
         <v>914007022</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D174" s="1">
         <v>2</v>
@@ -4076,7 +4210,7 @@
         <v>914007032</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D175" s="1">
         <v>2</v>
@@ -4093,7 +4227,7 @@
         <v>914012032</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -4110,7 +4244,7 @@
         <v>914012042</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D177" s="1">
         <v>2</v>
@@ -4127,7 +4261,7 @@
         <v>914013042</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -4144,7 +4278,7 @@
         <v>914011022</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D179" s="1">
         <v>2</v>
@@ -4161,7 +4295,7 @@
         <v>914010012</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -4178,7 +4312,7 @@
         <v>914010022</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -4195,7 +4329,7 @@
         <v>906010032</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -4212,7 +4346,7 @@
         <v>906010022</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -4229,7 +4363,7 @@
         <v>906010012</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D184" s="1">
         <v>2</v>
@@ -4246,7 +4380,7 @@
         <v>906009032</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -4263,7 +4397,7 @@
         <v>906007022</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D186" s="1">
         <v>2</v>
@@ -4280,7 +4414,7 @@
         <v>906007012</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -4297,7 +4431,7 @@
         <v>914011042</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -4314,7 +4448,7 @@
         <v>914011032</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -4331,7 +4465,7 @@
         <v>914012012</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D190" s="1">
         <v>2</v>
@@ -4405,7 +4539,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
